--- a/demographics_table.xlsx
+++ b/demographics_table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="3820" yWindow="460" windowWidth="21780" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t xml:space="preserve">     (4) = 9.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       (4) = 26.07</t>
   </si>
   <si>
     <t xml:space="preserve">  F(3) = 68.80</t>
@@ -240,6 +237,9 @@
   </si>
   <si>
     <t>LL &amp; C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       (4) = 29.47</t>
   </si>
 </sst>
 </file>
@@ -388,15 +388,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -407,9 +401,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -472,6 +463,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -648,8 +648,8 @@
       <xdr:rowOff>7697</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="195053" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -685,6 +685,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -724,7 +725,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -794,8 +795,8 @@
       <xdr:rowOff>14239</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="195053" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -831,6 +832,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -870,7 +872,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -940,8 +942,8 @@
       <xdr:rowOff>17072</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="195053" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -977,6 +979,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1016,7 +1019,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -1086,8 +1089,8 @@
       <xdr:rowOff>3218</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="195053" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -1123,6 +1126,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1162,7 +1166,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -1232,8 +1236,8 @@
       <xdr:rowOff>17319</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="195053" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -1269,6 +1273,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1308,7 +1313,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -1378,8 +1383,8 @@
       <xdr:rowOff>10392</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="195053" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -1415,6 +1420,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1454,7 +1460,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -1516,44 +1522,6 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>808567</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2489200" y="6316133"/>
-          <a:ext cx="20535900" cy="4902200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1822,9 +1790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:R30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D62" sqref="D62"/>
+      <selection pane="topRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1835,7 +1803,7 @@
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="14" width="16.6640625" customWidth="1"/>
     <col min="15" max="15" width="14.33203125" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" style="26" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="23" customWidth="1"/>
     <col min="17" max="17" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1854,64 +1822,64 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="22"/>
+      <c r="P6" s="19"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D7" s="30"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="40"/>
+      <c r="I7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
+      <c r="L7" s="40"/>
+      <c r="M7" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="33"/>
+      <c r="P7" s="30"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="7"/>
+      <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="39"/>
+      <c r="G8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="s">
+      <c r="H8" s="39"/>
+      <c r="I8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10" t="s">
+      <c r="J8" s="39"/>
+      <c r="K8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10" t="s">
+      <c r="L8" s="39"/>
+      <c r="M8" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="10"/>
+      <c r="N8" s="39"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="22"/>
+      <c r="P8" s="19"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="2"/>
     </row>
@@ -1919,847 +1887,847 @@
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q9" s="14" t="s">
+      <c r="P9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="14"/>
+      <c r="R9" s="41"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="17">
         <v>65.13333333333334</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>8.299286771737691</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>64.461538461538467</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <v>7.7471582879441376</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="10">
         <v>61</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <v>5.7287155469775088</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="10">
         <v>61.954545454545453</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="10">
         <v>7.1612533668031721</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="10">
         <v>64.849999999999994</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="10">
         <v>9.2467633028507539</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10" s="19">
         <v>0.24</v>
       </c>
       <c r="Q10" s="3"/>
-      <c r="R10" s="13"/>
+      <c r="R10" s="11"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="17">
         <v>15.66666666666667</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <v>2.8687776242628611</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>15.26923076923077</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <v>2.4258226201879198</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="10">
         <v>15.17391304347826</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="10">
         <v>2.3865565515849489</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="10">
         <v>13.59090909090909</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="10">
         <v>2.218087784537262</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="10">
         <v>13.85</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="10">
         <v>3.0826338704016361</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="22">
+      <c r="P11" s="19">
         <v>0.03</v>
       </c>
       <c r="Q11" s="3"/>
-      <c r="R11" s="13"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="18">
         <v>0.4</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12">
         <v>0.65384615384615385</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12">
         <v>0.60869565217391308</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15">
+      <c r="J12" s="12"/>
+      <c r="K12" s="12">
         <v>0.36363636363636365</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12">
         <v>0.75</v>
       </c>
-      <c r="N12" s="12"/>
+      <c r="N12" s="10"/>
       <c r="O12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="19">
         <v>0.03</v>
       </c>
       <c r="Q12" s="3"/>
-      <c r="R12" s="13"/>
+      <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <v>0.8666666666666667</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
         <v>0.80769230769230771</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12">
         <v>0.86956521739130432</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15">
+      <c r="J13" s="12"/>
+      <c r="K13" s="12">
         <v>0.68181818181818177</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15">
+      <c r="L13" s="12"/>
+      <c r="M13" s="12">
         <v>0.95</v>
       </c>
-      <c r="N13" s="12"/>
+      <c r="N13" s="10"/>
       <c r="O13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="19">
         <v>0.17</v>
       </c>
       <c r="Q13" s="3"/>
-      <c r="R13" s="13"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C14" s="30"/>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>43.64</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="10">
         <v>18.953627621117811</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="10">
         <v>38.913043478260867</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="10">
         <v>20.562350952161129</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="10">
         <v>32.047619047619051</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="10">
         <v>20.826608438428451</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="10">
         <v>44.263157894736842</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="10">
         <v>19.578452172571868</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P14" s="22">
+      <c r="P14" s="19">
         <v>0.17</v>
       </c>
       <c r="Q14" s="3"/>
-      <c r="R14" s="13"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="17">
         <v>55383.333333333343</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <v>29385.570976402611</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>40826.923076923078</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="10">
         <v>28956.49920404478</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="10">
         <v>27695.65217391304</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="10">
         <v>22024.644837934491</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="10">
         <v>27909.090909090912</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="10">
         <v>20198.206169547149</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="10">
         <v>38200</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="10">
         <v>31936.367654249101</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q15" s="34" t="s">
+      <c r="P15" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="R15" s="13"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="17">
         <v>2.2333333333333329</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>2.6087826905353348</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>15.07692307692308</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="10">
         <v>6.0459776838693484</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="10">
         <v>17.913043478260871</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="10">
         <v>7.8503795129932223</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="10">
         <v>18.95454545454545</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="10">
         <v>9.3527549937986709</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="10">
         <v>15.75</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="10">
         <v>8.4347339520642421</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P16" s="22">
+      <c r="P16" s="19">
         <v>0.31</v>
       </c>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="13"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="11"/>
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="17">
         <v>29.1</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <v>1.1249521062602219</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>28.88461538461538</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="10">
         <v>1.0325472609783271</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="10">
         <v>28.60869565217391</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="10">
         <v>1.725191173458825</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="10">
         <v>28.22727272727273</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="10">
         <v>1.411915894629171</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="10">
         <v>27.9</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="10">
         <v>2.1496633763403392</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="22">
+      <c r="P17" s="19">
         <v>0.04</v>
       </c>
-      <c r="Q17" s="34" t="s">
+      <c r="Q17" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="R17" s="13"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>0.1153846153846154</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="10">
         <v>0.32581259360842107</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="10">
         <v>15.17391304347826</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="10">
         <v>6.414841980006873</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="10">
         <v>19.09090909090909</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="10">
         <v>7.4763697003361136</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="10">
         <v>23.95</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="10">
         <v>7.6603902607744736</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q18" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="13"/>
+      <c r="R18" s="11"/>
     </row>
     <row r="19" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="17">
         <v>137.65517241379311</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="10">
         <v>3.8384880028187212</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="10">
         <v>136.27272727272731</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="10">
         <v>4.1995670772549447</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="10">
         <v>136.52173913043481</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="10">
         <v>3.8596934077179008</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="10">
         <v>134.8095238095238</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="10">
         <v>4.9052935449272308</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="10">
         <v>134.9</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="10">
         <v>3.5967821876314892</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P19" s="22">
+      <c r="P19" s="19">
         <v>0.09</v>
       </c>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="13"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="11"/>
     </row>
     <row r="20" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="26">
         <v>2.2272727272727271</v>
       </c>
-      <c r="L20" s="29">
+      <c r="L20" s="26">
         <v>1.269863816538652</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="26">
         <v>5.5</v>
       </c>
-      <c r="N20" s="29">
+      <c r="N20" s="26">
         <v>1.317893055320938</v>
       </c>
-      <c r="O20" s="32" t="s">
+      <c r="O20" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="P20" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q20" s="35" t="s">
+      <c r="P20" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q20" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="R20" s="28"/>
+      <c r="R20" s="25"/>
     </row>
     <row r="21" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="26">
         <v>18</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="26">
         <v>6.2943663397555456</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="26">
         <v>19.8</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N21" s="26">
         <v>4.3841820937979934</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="O21" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="P21" s="27">
+      <c r="P21" s="24">
         <v>0.31</v>
       </c>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="28"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="25"/>
     </row>
     <row r="22" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="26">
         <v>7.5454545454545459</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="26">
         <v>3.3484505688633379</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="26">
         <v>8.5500000000000007</v>
       </c>
-      <c r="N22" s="29">
+      <c r="N22" s="26">
         <v>2.9995613714429372</v>
       </c>
-      <c r="O22" s="26" t="s">
+      <c r="O22" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="P22" s="29">
+      <c r="P22" s="26">
         <v>0.1</v>
       </c>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="25"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="22"/>
     </row>
     <row r="23" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="20">
         <v>0</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="23">
+      <c r="F23" s="23"/>
+      <c r="G23" s="20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20">
         <v>0.39</v>
       </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23">
+      <c r="J23" s="20"/>
+      <c r="K23" s="20">
         <v>0.38</v>
       </c>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23">
+      <c r="L23" s="20"/>
+      <c r="M23" s="20">
         <v>0.53</v>
       </c>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26" t="s">
+      <c r="N23" s="23"/>
+      <c r="O23" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="P23" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q23" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="R23" s="25"/>
+      <c r="P23" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" s="22"/>
     </row>
     <row r="24" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="20">
         <v>0</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="23">
+      <c r="F24" s="23"/>
+      <c r="G24" s="20">
         <v>0.32</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23">
+      <c r="J24" s="20"/>
+      <c r="K24" s="20">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23">
+      <c r="L24" s="20"/>
+      <c r="M24" s="20">
         <v>0.53</v>
       </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26" t="s">
+      <c r="N24" s="23"/>
+      <c r="O24" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="P24" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q24" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="R24" s="25"/>
+      <c r="P24" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="R24" s="22"/>
     </row>
     <row r="25" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="20">
         <v>0</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="23">
+      <c r="F25" s="23"/>
+      <c r="G25" s="20">
         <v>0.16</v>
       </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20">
         <v>0.13</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23">
-        <v>0.21</v>
-      </c>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26" t="s">
+      <c r="J25" s="20"/>
+      <c r="K25" s="20">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="26">
+      <c r="P25" s="23">
         <v>0.06</v>
       </c>
-      <c r="Q25" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="R25" s="25"/>
+      <c r="Q25" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="R25" s="22"/>
     </row>
     <row r="26" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="24">
-        <v>0.03</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="23">
+      <c r="E26" s="21">
+        <v>0</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="20">
         <v>0.4</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23">
-        <v>0.63</v>
-      </c>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="P26" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q26" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="R26" s="25"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20">
+        <v>0.56520000000000004</v>
+      </c>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20">
+        <v>0.63149999999999995</v>
+      </c>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="R26" s="22"/>
     </row>
     <row r="27" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="26">
         <v>5.5517241379310347</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="26">
         <v>2.6804344916523162</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="26">
         <v>5.083333333333333</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="26">
         <v>2.7491764247666519</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="26">
         <v>6.2173913043478262</v>
       </c>
-      <c r="J27" s="29">
+      <c r="J27" s="26">
         <v>3.2044928933541601</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="26">
         <v>6.1904761904761907</v>
       </c>
-      <c r="L27" s="29">
+      <c r="L27" s="26">
         <v>2.4823184247603618</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="26">
         <v>8.4499999999999993</v>
       </c>
-      <c r="N27" s="29">
+      <c r="N27" s="26">
         <v>4.6732722672887919</v>
       </c>
-      <c r="O27" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="26">
+      <c r="O27" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="23">
         <v>0.01</v>
       </c>
-      <c r="Q27" s="35" t="s">
+      <c r="Q27" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="R27" s="25"/>
+      <c r="R27" s="22"/>
     </row>
     <row r="28" spans="4:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="35">
         <v>0.1153846153846154</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="35">
         <v>0.32581259360842107</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="35">
         <v>15.17391304347826</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="35">
         <v>6.414841980006873</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="35">
         <v>19.09090909090909</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="35">
         <v>7.4763697003361136</v>
       </c>
-      <c r="M28" s="38">
+      <c r="M28" s="35">
         <v>23.95</v>
       </c>
-      <c r="N28" s="38">
+      <c r="N28" s="35">
         <v>7.6603902607744736</v>
       </c>
-      <c r="O28" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="P28" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q28" s="40" t="s">
+      <c r="O28" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="R28" s="41"/>
+      <c r="R28" s="38"/>
     </row>
     <row r="29" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="Q29" s="18"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="Q29" s="15"/>
     </row>
     <row r="30" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="13" t="s">
         <v>33</v>
       </c>
     </row>
